--- a/medicine/Psychotrope/Meierei_im_Neuen_Garten/Meierei_im_Neuen_Garten.xlsx
+++ b/medicine/Psychotrope/Meierei_im_Neuen_Garten/Meierei_im_Neuen_Garten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Meierei im Neuen Garten est une brasserie et un restaurant (Brauhaus) à Potsdam, dans le nouveau jardin, au bord du Jungfernsee.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment est conçu par le maître d'œuvre Carl Gotthard Langhans. La construction reprend de 1790 à 1792 avec Andreas Ludwig Krüger. Dans le cadre du jardin paysager et de la construction du Palais de Marbre par Frédéric-Guillaume II de Prusse, une laiterie est créée pour approvisionner la cour.
 En 1843, Frédéric-Guillaume IV de Prusse fait agrandir le bâtiment. Sous la direction de Ludwig Ferdinand Hesse, un deuxième étage a été construit selon un projet de l'architecte Ludwig Persius et le coin sud-ouest est souligné par une tour. Un merlon entoure les toits et confère au bâtiment un caractère normand.
